--- a/张理程/作息时间.xlsx
+++ b/张理程/作息时间.xlsx
@@ -1,31 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\zyy\homeWork\张理程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D2BB5F0C-9D30-4F34-A8D4-4D77A8A88F9C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9580B40B-58D8-47BB-A52C-9E4F43B3C510}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="暑假作息" sheetId="9" r:id="rId1"/>
-    <sheet name="寒假作息" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="学习日需要做的事情1" sheetId="6" r:id="rId4"/>
-    <sheet name="学习日需要做的事情2 " sheetId="7" r:id="rId5"/>
-    <sheet name="非学习日需要做的事情" sheetId="8" r:id="rId6"/>
+    <sheet name="休息日作息" sheetId="13" r:id="rId1"/>
+    <sheet name="学习日作息" sheetId="10" r:id="rId2"/>
+    <sheet name="奖励" sheetId="11" r:id="rId3"/>
+    <sheet name="暑假作息" sheetId="9" r:id="rId4"/>
+    <sheet name="寒假作息" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="学习日需要做的事情1" sheetId="6" r:id="rId7"/>
+    <sheet name="学习日需要做的事情2 " sheetId="7" r:id="rId8"/>
+    <sheet name="非学习日需要做的事情" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
   <si>
     <t>寒假作息时间</t>
   </si>
@@ -219,16 +223,80 @@
     <t>自由活动（做运动）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>吃下午茶</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>写数学作业</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>写英语作业</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>写语文作业（不包含抄写作业）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息（跳跃500次，喝水，上厕所）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>练字一页（包含未抄写完的）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文阅读理解</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>背成语4个，背古诗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查当天的情况</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事情</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习日作息时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息日作息时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="179" formatCode="h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +372,23 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -467,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -477,13 +562,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -498,61 +583,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -569,15 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,399 +973,398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C8E8A1-F0C3-4D57-8D7B-A04974D0778F}">
-  <dimension ref="B1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80581738-F768-4F9F-9507-E27BA242EF45}">
+  <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="14" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="36" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="13"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="30.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="2:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+    <row r="1" spans="2:8" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="2:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17">
+    <row r="4" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="16">
         <v>0.375</v>
       </c>
-      <c r="C4" s="18" t="str">
+      <c r="C4" s="17" t="str">
         <f t="shared" ref="C4:C25" si="0">TEXT(B4+D4/24/60,"HH:MM")</f>
         <v>09:20</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>20</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="str">
+    <row r="5" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="20" t="str">
         <f t="shared" ref="B5:B25" si="1">C4</f>
         <v>09:20</v>
       </c>
-      <c r="C5" s="18" t="str">
+      <c r="C5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>09:50</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>30</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="str">
+    <row r="6" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>09:50</v>
       </c>
-      <c r="C6" s="18" t="str">
+      <c r="C6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>10:30</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>40</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="str">
+    <row r="7" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="20" t="str">
         <f t="shared" si="1"/>
         <v>10:30</v>
       </c>
-      <c r="C7" s="18" t="str">
+      <c r="C7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>10:50</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>20</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="str">
+    <row r="8" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="20" t="str">
         <f t="shared" si="1"/>
         <v>10:50</v>
       </c>
-      <c r="C8" s="18" t="str">
+      <c r="C8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>11:30</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>40</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="str">
+    <row r="9" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="20" t="str">
         <f t="shared" si="1"/>
         <v>11:30</v>
       </c>
-      <c r="C9" s="18" t="str">
+      <c r="C9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>11:50</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>20</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="str">
+    <row r="10" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="20" t="str">
         <f t="shared" si="1"/>
         <v>11:50</v>
       </c>
-      <c r="C10" s="18" t="str">
+      <c r="C10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>12:30</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>40</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="str">
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="20" t="str">
         <f t="shared" si="1"/>
         <v>12:30</v>
       </c>
-      <c r="C11" s="18" t="str">
+      <c r="C11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>12:50</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>20</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="str">
+    <row r="12" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="20" t="str">
         <f t="shared" si="1"/>
         <v>12:50</v>
       </c>
-      <c r="C12" s="18" t="str">
+      <c r="C12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>13:30</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>40</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="str">
+    <row r="13" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="20" t="str">
         <f t="shared" si="1"/>
         <v>13:30</v>
       </c>
-      <c r="C13" s="18" t="str">
+      <c r="C13" s="17" t="str">
         <f t="shared" si="0"/>
         <v>15:00</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>90</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="str">
+    <row r="14" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="20" t="str">
         <f t="shared" si="1"/>
         <v>15:00</v>
       </c>
-      <c r="C14" s="18" t="str">
+      <c r="C14" s="17" t="str">
         <f t="shared" si="0"/>
         <v>16:00</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>60</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="str">
+      <c r="E14" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="20" t="str">
         <f t="shared" si="1"/>
         <v>16:00</v>
       </c>
-      <c r="C15" s="18" t="str">
+      <c r="C15" s="17" t="str">
         <f t="shared" si="0"/>
         <v>16:20</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>20</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="str">
+    <row r="16" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="20" t="str">
         <f t="shared" si="1"/>
         <v>16:20</v>
       </c>
-      <c r="C16" s="18" t="str">
+      <c r="C16" s="17" t="str">
         <f t="shared" si="0"/>
         <v>17:00</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>40</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="str">
+    <row r="17" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="20" t="str">
         <f t="shared" si="1"/>
         <v>17:00</v>
       </c>
-      <c r="C17" s="18" t="str">
+      <c r="C17" s="17" t="str">
         <f t="shared" si="0"/>
         <v>17:20</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>20</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="str">
+    <row r="18" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="20" t="str">
         <f t="shared" si="1"/>
         <v>17:20</v>
       </c>
-      <c r="C18" s="18" t="str">
+      <c r="C18" s="17" t="str">
         <f t="shared" si="0"/>
         <v>18:00</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>40</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="str">
+    <row r="19" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="20" t="str">
         <f t="shared" si="1"/>
         <v>18:00</v>
       </c>
-      <c r="C19" s="18" t="str">
+      <c r="C19" s="17" t="str">
         <f t="shared" si="0"/>
         <v>18:20</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>20</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="str">
+    <row r="20" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="20" t="str">
         <f t="shared" si="1"/>
         <v>18:20</v>
       </c>
-      <c r="C20" s="18" t="str">
+      <c r="C20" s="17" t="str">
         <f t="shared" si="0"/>
         <v>18:50</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>30</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="str">
+    <row r="21" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="20" t="str">
         <f t="shared" si="1"/>
         <v>18:50</v>
       </c>
-      <c r="C21" s="18" t="str">
+      <c r="C21" s="17" t="str">
         <f t="shared" si="0"/>
         <v>19:30</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>40</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="str">
+    <row r="22" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="20" t="str">
         <f t="shared" si="1"/>
         <v>19:30</v>
       </c>
-      <c r="C22" s="18" t="str">
+      <c r="C22" s="17" t="str">
         <f t="shared" si="0"/>
         <v>20:00</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>30</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="str">
+    <row r="23" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="20" t="str">
         <f t="shared" si="1"/>
         <v>20:00</v>
       </c>
-      <c r="C23" s="18" t="str">
+      <c r="C23" s="17" t="str">
         <f t="shared" si="0"/>
         <v>20:50</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <v>50</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="str">
+    <row r="24" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="20" t="str">
         <f t="shared" si="1"/>
         <v>20:50</v>
       </c>
-      <c r="C24" s="18" t="str">
+      <c r="C24" s="17" t="str">
         <f t="shared" si="0"/>
         <v>21:20</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <v>30</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="str">
+    <row r="25" spans="2:5" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="21" t="str">
         <f t="shared" si="1"/>
         <v>21:20</v>
       </c>
-      <c r="C25" s="23" t="str">
+      <c r="C25" s="22" t="str">
         <f t="shared" si="0"/>
         <v>21:50</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="23">
         <v>30</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="13" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1289,394 +1379,318 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EBD3AE-C48E-47ED-90AB-0F205EE0DF19}">
+  <dimension ref="B1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="14" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="33.77734375" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="13"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="30.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="2:5" ht="30.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+    <row r="1" spans="2:5" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17">
-        <v>0.35416666666666702</v>
-      </c>
-      <c r="C4" s="18" t="str">
-        <f t="shared" ref="C4:C25" si="0">TEXT(B4+D4/24/60,"HH:MM")</f>
-        <v>08:55</v>
-      </c>
-      <c r="D4" s="19">
-        <v>25</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="str">
-        <f t="shared" ref="B5:B25" si="1">C4</f>
-        <v>08:55</v>
-      </c>
-      <c r="C5" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>09:25</v>
-      </c>
-      <c r="D5" s="19">
+    <row r="4" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="16">
+        <v>0.71875</v>
+      </c>
+      <c r="C4" s="17" t="str">
+        <f t="shared" ref="C4:C17" si="0">TEXT(B4+D4/24/60,"HH:MM")</f>
+        <v>17:30</v>
+      </c>
+      <c r="D4" s="18">
+        <v>15</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="20" t="str">
+        <f t="shared" ref="B5:B17" si="1">C4</f>
+        <v>17:30</v>
+      </c>
+      <c r="C5" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>18:00</v>
+      </c>
+      <c r="D5" s="18">
         <v>30</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>09:25</v>
-      </c>
-      <c r="C6" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>10:05</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="E5" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>18:00</v>
+      </c>
+      <c r="C6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>18:20</v>
+      </c>
+      <c r="D6" s="18">
+        <v>20</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>18:20</v>
+      </c>
+      <c r="C7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>18:40</v>
+      </c>
+      <c r="D7" s="18">
+        <v>20</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>18:40</v>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>18:55</v>
+      </c>
+      <c r="D8" s="18">
+        <v>15</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>18:55</v>
+      </c>
+      <c r="C9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>19:15</v>
+      </c>
+      <c r="D9" s="18">
+        <v>20</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>10:05</v>
-      </c>
-      <c r="C7" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>10:25</v>
-      </c>
-      <c r="D7" s="19">
+    </row>
+    <row r="10" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>19:15</v>
+      </c>
+      <c r="C10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>19:45</v>
+      </c>
+      <c r="D10" s="18">
+        <v>30</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>19:45</v>
+      </c>
+      <c r="C11" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>20:05</v>
+      </c>
+      <c r="D11" s="18">
         <v>20</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>10:25</v>
-      </c>
-      <c r="C8" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>11:05</v>
-      </c>
-      <c r="D8" s="19">
-        <v>40</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>11:05</v>
-      </c>
-      <c r="C9" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>11:25</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="E11" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>20:05</v>
+      </c>
+      <c r="C12" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>20:25</v>
+      </c>
+      <c r="D12" s="18">
         <v>20</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>11:25</v>
-      </c>
-      <c r="C10" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>12:05</v>
-      </c>
-      <c r="D10" s="19">
-        <v>40</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>12:05</v>
-      </c>
-      <c r="C11" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>12:25</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="E12" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>20:25</v>
+      </c>
+      <c r="C13" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>20:55</v>
+      </c>
+      <c r="D13" s="18">
+        <v>30</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="27" t="str">
+        <f>C13</f>
+        <v>20:55</v>
+      </c>
+      <c r="C14" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>21:25</v>
+      </c>
+      <c r="D14" s="18">
+        <v>30</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>21:25</v>
+      </c>
+      <c r="C15" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>21:45</v>
+      </c>
+      <c r="D15" s="18">
         <v>20</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>12:25</v>
-      </c>
-      <c r="C12" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>12:55</v>
-      </c>
-      <c r="D12" s="19">
-        <v>30</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>12:55</v>
-      </c>
-      <c r="C13" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>14:55</v>
-      </c>
-      <c r="D13" s="19">
-        <v>120</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>14:55</v>
-      </c>
-      <c r="C14" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>15:35</v>
-      </c>
-      <c r="D14" s="19">
-        <v>40</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>15:35</v>
-      </c>
-      <c r="C15" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>15:55</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="E15" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>21:45</v>
+      </c>
+      <c r="C16" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>22:00</v>
+      </c>
+      <c r="D16" s="18">
+        <v>15</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>22:00</v>
+      </c>
+      <c r="C17" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>22:20</v>
+      </c>
+      <c r="D17" s="18">
         <v>20</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>15:55</v>
-      </c>
-      <c r="C16" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>16:35</v>
-      </c>
-      <c r="D16" s="19">
-        <v>40</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>16:35</v>
-      </c>
-      <c r="C17" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>16:55</v>
-      </c>
-      <c r="D17" s="19">
-        <v>20</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>16:55</v>
-      </c>
-      <c r="C18" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>17:35</v>
-      </c>
-      <c r="D18" s="19">
-        <v>40</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>17:35</v>
-      </c>
-      <c r="C19" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>17:55</v>
-      </c>
-      <c r="D19" s="19">
-        <v>20</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>17:55</v>
-      </c>
-      <c r="C20" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>18:30</v>
-      </c>
-      <c r="D20" s="19">
-        <v>35</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>18:30</v>
-      </c>
-      <c r="C21" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>19:10</v>
-      </c>
-      <c r="D21" s="19">
-        <v>40</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>19:10</v>
-      </c>
-      <c r="C22" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>19:40</v>
-      </c>
-      <c r="D22" s="19">
-        <v>30</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>19:40</v>
-      </c>
-      <c r="C23" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>20:30</v>
-      </c>
-      <c r="D23" s="19">
-        <v>50</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>20:30</v>
-      </c>
-      <c r="C24" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>21:00</v>
-      </c>
-      <c r="D24" s="19">
-        <v>30</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>21:00</v>
-      </c>
-      <c r="C25" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>21:40</v>
-      </c>
-      <c r="D25" s="24">
-        <v>40</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>21</v>
+      <c r="E17" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="20"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="20"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="20"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="20"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="20"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="20"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="20"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="2:5" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1690,6 +1704,834 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E17D18D-D086-4E11-9BE9-680543588038}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C8E8A1-F0C3-4D57-8D7B-A04974D0778F}">
+  <dimension ref="B1:E28"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="17" t="str">
+        <f t="shared" ref="C4:C25" si="0">TEXT(B4+D4/24/60,"HH:MM")</f>
+        <v>09:20</v>
+      </c>
+      <c r="D4" s="18">
+        <v>20</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="20" t="str">
+        <f t="shared" ref="B5:B25" si="1">C4</f>
+        <v>09:20</v>
+      </c>
+      <c r="C5" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>09:50</v>
+      </c>
+      <c r="D5" s="18">
+        <v>30</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>09:50</v>
+      </c>
+      <c r="C6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>10:30</v>
+      </c>
+      <c r="D6" s="18">
+        <v>40</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>10:30</v>
+      </c>
+      <c r="C7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>10:50</v>
+      </c>
+      <c r="D7" s="18">
+        <v>20</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>10:50</v>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>11:30</v>
+      </c>
+      <c r="D8" s="18">
+        <v>40</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>11:30</v>
+      </c>
+      <c r="C9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>11:50</v>
+      </c>
+      <c r="D9" s="18">
+        <v>20</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>11:50</v>
+      </c>
+      <c r="C10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>12:30</v>
+      </c>
+      <c r="D10" s="18">
+        <v>40</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>12:30</v>
+      </c>
+      <c r="C11" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>12:50</v>
+      </c>
+      <c r="D11" s="18">
+        <v>20</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>12:50</v>
+      </c>
+      <c r="C12" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>13:30</v>
+      </c>
+      <c r="D12" s="18">
+        <v>40</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>13:30</v>
+      </c>
+      <c r="C13" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>15:00</v>
+      </c>
+      <c r="D13" s="18">
+        <v>90</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>15:00</v>
+      </c>
+      <c r="C14" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>16:00</v>
+      </c>
+      <c r="D14" s="18">
+        <v>60</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>16:00</v>
+      </c>
+      <c r="C15" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>16:20</v>
+      </c>
+      <c r="D15" s="18">
+        <v>20</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>16:20</v>
+      </c>
+      <c r="C16" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>17:00</v>
+      </c>
+      <c r="D16" s="18">
+        <v>40</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>17:00</v>
+      </c>
+      <c r="C17" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>17:20</v>
+      </c>
+      <c r="D17" s="18">
+        <v>20</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>17:20</v>
+      </c>
+      <c r="C18" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>18:00</v>
+      </c>
+      <c r="D18" s="18">
+        <v>40</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>18:00</v>
+      </c>
+      <c r="C19" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>18:20</v>
+      </c>
+      <c r="D19" s="18">
+        <v>20</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>18:20</v>
+      </c>
+      <c r="C20" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>18:50</v>
+      </c>
+      <c r="D20" s="18">
+        <v>30</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>18:50</v>
+      </c>
+      <c r="C21" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>19:30</v>
+      </c>
+      <c r="D21" s="18">
+        <v>40</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>19:30</v>
+      </c>
+      <c r="C22" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>20:00</v>
+      </c>
+      <c r="D22" s="18">
+        <v>30</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>20:00</v>
+      </c>
+      <c r="C23" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>20:50</v>
+      </c>
+      <c r="D23" s="18">
+        <v>50</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>20:50</v>
+      </c>
+      <c r="C24" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>21:20</v>
+      </c>
+      <c r="D24" s="18">
+        <v>30</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>21:20</v>
+      </c>
+      <c r="C25" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>21:50</v>
+      </c>
+      <c r="D25" s="23">
+        <v>30</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:E25"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="33.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="2:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="16">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="C4" s="17" t="str">
+        <f t="shared" ref="C4:C25" si="0">TEXT(B4+D4/24/60,"HH:MM")</f>
+        <v>08:55</v>
+      </c>
+      <c r="D4" s="18">
+        <v>25</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="20" t="str">
+        <f t="shared" ref="B5:B25" si="1">C4</f>
+        <v>08:55</v>
+      </c>
+      <c r="C5" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>09:25</v>
+      </c>
+      <c r="D5" s="18">
+        <v>30</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>09:25</v>
+      </c>
+      <c r="C6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>10:05</v>
+      </c>
+      <c r="D6" s="18">
+        <v>40</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>10:05</v>
+      </c>
+      <c r="C7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>10:25</v>
+      </c>
+      <c r="D7" s="18">
+        <v>20</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>10:25</v>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>11:05</v>
+      </c>
+      <c r="D8" s="18">
+        <v>40</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>11:05</v>
+      </c>
+      <c r="C9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>11:25</v>
+      </c>
+      <c r="D9" s="18">
+        <v>20</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>11:25</v>
+      </c>
+      <c r="C10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>12:05</v>
+      </c>
+      <c r="D10" s="18">
+        <v>40</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>12:05</v>
+      </c>
+      <c r="C11" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>12:25</v>
+      </c>
+      <c r="D11" s="18">
+        <v>20</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>12:25</v>
+      </c>
+      <c r="C12" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>12:55</v>
+      </c>
+      <c r="D12" s="18">
+        <v>30</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>12:55</v>
+      </c>
+      <c r="C13" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>14:55</v>
+      </c>
+      <c r="D13" s="18">
+        <v>120</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>14:55</v>
+      </c>
+      <c r="C14" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>15:35</v>
+      </c>
+      <c r="D14" s="18">
+        <v>40</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>15:35</v>
+      </c>
+      <c r="C15" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>15:55</v>
+      </c>
+      <c r="D15" s="18">
+        <v>20</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>15:55</v>
+      </c>
+      <c r="C16" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>16:35</v>
+      </c>
+      <c r="D16" s="18">
+        <v>40</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>16:35</v>
+      </c>
+      <c r="C17" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>16:55</v>
+      </c>
+      <c r="D17" s="18">
+        <v>20</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>16:55</v>
+      </c>
+      <c r="C18" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>17:35</v>
+      </c>
+      <c r="D18" s="18">
+        <v>40</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>17:35</v>
+      </c>
+      <c r="C19" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>17:55</v>
+      </c>
+      <c r="D19" s="18">
+        <v>20</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>17:55</v>
+      </c>
+      <c r="C20" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>18:30</v>
+      </c>
+      <c r="D20" s="18">
+        <v>35</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>18:30</v>
+      </c>
+      <c r="C21" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>19:10</v>
+      </c>
+      <c r="D21" s="18">
+        <v>40</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>19:10</v>
+      </c>
+      <c r="C22" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>19:40</v>
+      </c>
+      <c r="D22" s="18">
+        <v>30</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>19:40</v>
+      </c>
+      <c r="C23" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>20:30</v>
+      </c>
+      <c r="D23" s="18">
+        <v>50</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>20:30</v>
+      </c>
+      <c r="C24" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>21:00</v>
+      </c>
+      <c r="D24" s="18">
+        <v>30</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>21:00</v>
+      </c>
+      <c r="C25" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>21:40</v>
+      </c>
+      <c r="D25" s="23">
+        <v>40</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A43"/>
   <sheetViews>
@@ -1697,217 +2539,217 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="12">
         <v>43227</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>43228</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>43229</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>43230</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>43231</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>43234</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>43235</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>43236</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>43237</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>43238</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>43241</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="12">
         <v>43242</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>43243</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="12">
         <v>43244</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>43245</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="12">
         <v>43248</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="12">
         <v>43249</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="12">
         <v>43250</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="12">
         <v>43251</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="12">
         <v>43252</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="12">
         <v>43255</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="12">
         <v>43256</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
         <v>43257</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
         <v>43258</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="12">
         <v>43259</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="12">
         <v>43260</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="12">
         <v>43261</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="12">
         <v>43262</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="12">
         <v>43263</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="12">
         <v>43264</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="12">
         <v>43265</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="12">
         <v>43266</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="12">
         <v>43267</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="12">
         <v>43268</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="12">
         <v>43269</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="12">
         <v>43270</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="12">
         <v>43271</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="12">
         <v>43272</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="12">
         <v>43273</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="12">
         <v>43274</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="12">
         <v>43275</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="12">
         <v>43276</v>
       </c>
@@ -1918,7 +2760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:P45"/>
   <sheetViews>
@@ -1926,36 +2768,36 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" customWidth="1"/>
+    <col min="1" max="1" width="1.375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="8" width="4.77734375" customWidth="1"/>
-    <col min="9" max="9" width="4.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="16" width="4.77734375" customWidth="1"/>
+    <col min="3" max="8" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.25" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="16" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:16" ht="37.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31"/>
-    </row>
-    <row r="3" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1977,7 +2819,7 @@
       <c r="H3" s="2">
         <v>6</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
@@ -2000,7 +2842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3">
         <v>43227</v>
       </c>
@@ -2010,7 +2852,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="32"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="10">
         <v>43277</v>
       </c>
@@ -2021,7 +2863,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>43228</v>
       </c>
@@ -2031,7 +2873,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="32"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="10">
         <v>43278</v>
       </c>
@@ -2042,7 +2884,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>43229</v>
       </c>
@@ -2052,7 +2894,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="32"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="10">
         <v>43279</v>
       </c>
@@ -2063,7 +2905,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>43230</v>
       </c>
@@ -2073,7 +2915,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="32"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="10">
         <v>43280</v>
       </c>
@@ -2084,7 +2926,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>43231</v>
       </c>
@@ -2094,7 +2936,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="32"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="10">
         <v>43281</v>
       </c>
@@ -2105,7 +2947,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>43234</v>
       </c>
@@ -2115,7 +2957,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="32"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="10">
         <v>43282</v>
       </c>
@@ -2126,7 +2968,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>43235</v>
       </c>
@@ -2136,7 +2978,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="32"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="10">
         <v>43283</v>
       </c>
@@ -2147,7 +2989,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>43236</v>
       </c>
@@ -2157,7 +2999,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="32"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="10">
         <v>43284</v>
       </c>
@@ -2168,7 +3010,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>43237</v>
       </c>
@@ -2178,7 +3020,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="32"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="10">
         <v>43285</v>
       </c>
@@ -2189,7 +3031,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>43238</v>
       </c>
@@ -2199,7 +3041,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="32"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="10">
         <v>43286</v>
       </c>
@@ -2210,7 +3052,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>43241</v>
       </c>
@@ -2220,7 +3062,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="32"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="10">
         <v>43287</v>
       </c>
@@ -2231,7 +3073,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>43242</v>
       </c>
@@ -2241,7 +3083,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="32"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="10">
         <v>43288</v>
       </c>
@@ -2252,7 +3094,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>43243</v>
       </c>
@@ -2262,7 +3104,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="32"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="10">
         <v>43289</v>
       </c>
@@ -2273,7 +3115,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>43244</v>
       </c>
@@ -2283,7 +3125,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="32"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="10">
         <v>43290</v>
       </c>
@@ -2294,7 +3136,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>43245</v>
       </c>
@@ -2304,7 +3146,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="32"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="10">
         <v>43291</v>
       </c>
@@ -2315,7 +3157,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>43248</v>
       </c>
@@ -2325,7 +3167,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="32"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="10">
         <v>43292</v>
       </c>
@@ -2336,7 +3178,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>43249</v>
       </c>
@@ -2346,7 +3188,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="32"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="10">
         <v>43293</v>
       </c>
@@ -2357,7 +3199,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>43250</v>
       </c>
@@ -2367,7 +3209,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="32"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="10">
         <v>43294</v>
       </c>
@@ -2378,7 +3220,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>43251</v>
       </c>
@@ -2388,7 +3230,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="32"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="10">
         <v>43295</v>
       </c>
@@ -2399,7 +3241,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>43252</v>
       </c>
@@ -2409,7 +3251,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="32"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="10">
         <v>43296</v>
       </c>
@@ -2420,7 +3262,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>43255</v>
       </c>
@@ -2430,7 +3272,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="32"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="10">
         <v>43297</v>
       </c>
@@ -2441,7 +3283,7 @@
       <c r="O24" s="4"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>43256</v>
       </c>
@@ -2451,7 +3293,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="32"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="10">
         <v>43298</v>
       </c>
@@ -2462,7 +3304,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>43257</v>
       </c>
@@ -2472,7 +3314,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="32"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="10">
         <v>43299</v>
       </c>
@@ -2483,7 +3325,7 @@
       <c r="O26" s="4"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>43258</v>
       </c>
@@ -2493,7 +3335,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="32"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="10">
         <v>43300</v>
       </c>
@@ -2504,7 +3346,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>43259</v>
       </c>
@@ -2514,7 +3356,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="32"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="10">
         <v>43301</v>
       </c>
@@ -2525,7 +3367,7 @@
       <c r="O28" s="4"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>43262</v>
       </c>
@@ -2535,7 +3377,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="32"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="10">
         <v>43302</v>
       </c>
@@ -2546,7 +3388,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>43263</v>
       </c>
@@ -2556,7 +3398,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="32"/>
+      <c r="I30" s="37"/>
       <c r="J30" s="10">
         <v>43303</v>
       </c>
@@ -2567,7 +3409,7 @@
       <c r="O30" s="4"/>
       <c r="P30" s="8"/>
     </row>
-    <row r="31" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>43264</v>
       </c>
@@ -2577,7 +3419,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="32"/>
+      <c r="I31" s="37"/>
       <c r="J31" s="10">
         <v>43304</v>
       </c>
@@ -2588,7 +3430,7 @@
       <c r="O31" s="4"/>
       <c r="P31" s="8"/>
     </row>
-    <row r="32" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>43265</v>
       </c>
@@ -2598,7 +3440,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="32"/>
+      <c r="I32" s="37"/>
       <c r="J32" s="10">
         <v>43305</v>
       </c>
@@ -2609,7 +3451,7 @@
       <c r="O32" s="4"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>43266</v>
       </c>
@@ -2619,7 +3461,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="32"/>
+      <c r="I33" s="37"/>
       <c r="J33" s="10">
         <v>43306</v>
       </c>
@@ -2630,7 +3472,7 @@
       <c r="O33" s="4"/>
       <c r="P33" s="8"/>
     </row>
-    <row r="34" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>43269</v>
       </c>
@@ -2640,7 +3482,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="32"/>
+      <c r="I34" s="37"/>
       <c r="J34" s="10">
         <v>43307</v>
       </c>
@@ -2651,7 +3493,7 @@
       <c r="O34" s="4"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>43270</v>
       </c>
@@ -2661,7 +3503,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="32"/>
+      <c r="I35" s="37"/>
       <c r="J35" s="10">
         <v>43308</v>
       </c>
@@ -2672,7 +3514,7 @@
       <c r="O35" s="4"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>43271</v>
       </c>
@@ -2682,7 +3524,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="32"/>
+      <c r="I36" s="37"/>
       <c r="J36" s="10">
         <v>43309</v>
       </c>
@@ -2693,7 +3535,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>43272</v>
       </c>
@@ -2703,7 +3545,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="32"/>
+      <c r="I37" s="37"/>
       <c r="J37" s="10">
         <v>43310</v>
       </c>
@@ -2714,7 +3556,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>43273</v>
       </c>
@@ -2724,7 +3566,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="32"/>
+      <c r="I38" s="37"/>
       <c r="J38" s="10">
         <v>43311</v>
       </c>
@@ -2735,7 +3577,7 @@
       <c r="O38" s="4"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>43276</v>
       </c>
@@ -2745,7 +3587,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="32"/>
+      <c r="I39" s="37"/>
       <c r="J39" s="10">
         <v>43312</v>
       </c>
@@ -2756,7 +3598,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>43277</v>
       </c>
@@ -2766,7 +3608,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="32"/>
+      <c r="I40" s="37"/>
       <c r="J40" s="10">
         <v>43313</v>
       </c>
@@ -2777,7 +3619,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>43278</v>
       </c>
@@ -2787,7 +3629,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="32"/>
+      <c r="I41" s="37"/>
       <c r="J41" s="10">
         <v>43314</v>
       </c>
@@ -2798,7 +3640,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="8"/>
     </row>
-    <row r="42" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>43279</v>
       </c>
@@ -2808,7 +3650,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="32"/>
+      <c r="I42" s="37"/>
       <c r="J42" s="10">
         <v>43315</v>
       </c>
@@ -2819,7 +3661,7 @@
       <c r="O42" s="4"/>
       <c r="P42" s="8"/>
     </row>
-    <row r="43" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>43280</v>
       </c>
@@ -2829,7 +3671,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="32"/>
+      <c r="I43" s="37"/>
       <c r="J43" s="10">
         <v>43316</v>
       </c>
@@ -2840,7 +3682,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="8"/>
     </row>
-    <row r="44" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3">
         <v>43283</v>
       </c>
@@ -2850,7 +3692,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="32"/>
+      <c r="I44" s="37"/>
       <c r="J44" s="10">
         <v>43317</v>
       </c>
@@ -2861,7 +3703,7 @@
       <c r="O44" s="4"/>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="3">
         <v>43284</v>
       </c>
@@ -2871,7 +3713,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="33"/>
+      <c r="I45" s="38"/>
       <c r="J45" s="11">
         <v>43318</v>
       </c>
@@ -2893,41 +3735,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" customWidth="1"/>
+    <col min="1" max="1" width="1.375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="16" width="4.77734375" customWidth="1"/>
+    <col min="3" max="16" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:16" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31"/>
-    </row>
-    <row r="3" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
@@ -2974,7 +3816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3">
         <v>43227</v>
       </c>
@@ -2993,7 +3835,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>43228</v>
       </c>
@@ -3012,7 +3854,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>43229</v>
       </c>
@@ -3031,7 +3873,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>43230</v>
       </c>
@@ -3050,7 +3892,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>43231</v>
       </c>
@@ -3069,7 +3911,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>43234</v>
       </c>
@@ -3088,7 +3930,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>43235</v>
       </c>
@@ -3107,7 +3949,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>43236</v>
       </c>
@@ -3126,7 +3968,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>43237</v>
       </c>
@@ -3145,7 +3987,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>43238</v>
       </c>
@@ -3164,7 +4006,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>43241</v>
       </c>
@@ -3183,7 +4025,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>43242</v>
       </c>
@@ -3202,7 +4044,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>43243</v>
       </c>
@@ -3221,7 +4063,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>43244</v>
       </c>
@@ -3240,7 +4082,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>43245</v>
       </c>
@@ -3259,7 +4101,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>43248</v>
       </c>
@@ -3278,7 +4120,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>43249</v>
       </c>
@@ -3297,7 +4139,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>43250</v>
       </c>
@@ -3316,7 +4158,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>43251</v>
       </c>
@@ -3335,7 +4177,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>43252</v>
       </c>
@@ -3354,7 +4196,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>43255</v>
       </c>
@@ -3373,7 +4215,7 @@
       <c r="O24" s="4"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>43256</v>
       </c>
@@ -3392,7 +4234,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>43257</v>
       </c>
@@ -3411,7 +4253,7 @@
       <c r="O26" s="4"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>43258</v>
       </c>
@@ -3430,7 +4272,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>43259</v>
       </c>
@@ -3449,7 +4291,7 @@
       <c r="O28" s="4"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>43262</v>
       </c>
@@ -3468,7 +4310,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>43263</v>
       </c>
@@ -3487,7 +4329,7 @@
       <c r="O30" s="4"/>
       <c r="P30" s="8"/>
     </row>
-    <row r="31" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>43264</v>
       </c>
@@ -3506,7 +4348,7 @@
       <c r="O31" s="4"/>
       <c r="P31" s="8"/>
     </row>
-    <row r="32" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>43265</v>
       </c>
@@ -3525,7 +4367,7 @@
       <c r="O32" s="4"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>43266</v>
       </c>
@@ -3544,7 +4386,7 @@
       <c r="O33" s="4"/>
       <c r="P33" s="8"/>
     </row>
-    <row r="34" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>43269</v>
       </c>
@@ -3563,7 +4405,7 @@
       <c r="O34" s="4"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>43270</v>
       </c>
@@ -3582,7 +4424,7 @@
       <c r="O35" s="4"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>43271</v>
       </c>
@@ -3601,7 +4443,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>43272</v>
       </c>
@@ -3620,7 +4462,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>43273</v>
       </c>
@@ -3639,7 +4481,7 @@
       <c r="O38" s="4"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>43276</v>
       </c>
@@ -3658,7 +4500,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>43277</v>
       </c>
@@ -3677,7 +4519,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>43278</v>
       </c>
@@ -3696,7 +4538,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="8"/>
     </row>
-    <row r="42" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>43279</v>
       </c>
@@ -3715,7 +4557,7 @@
       <c r="O42" s="4"/>
       <c r="P42" s="8"/>
     </row>
-    <row r="43" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>43280</v>
       </c>
@@ -3744,7 +4586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:P43"/>
   <sheetViews>
@@ -3752,33 +4594,33 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" customWidth="1"/>
+    <col min="1" max="1" width="1.375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="16" width="4.77734375" customWidth="1"/>
+    <col min="3" max="16" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:16" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31"/>
-    </row>
-    <row r="3" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
@@ -3825,7 +4667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3842,7 +4684,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3859,7 +4701,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -3876,7 +4718,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3893,7 +4735,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3910,7 +4752,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3927,7 +4769,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3944,7 +4786,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3961,7 +4803,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3978,7 +4820,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3995,7 +4837,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4012,7 +4854,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4029,7 +4871,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -4046,7 +4888,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -4063,7 +4905,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -4080,7 +4922,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -4097,7 +4939,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -4114,7 +4956,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -4131,7 +4973,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -4148,7 +4990,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -4165,7 +5007,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -4182,7 +5024,7 @@
       <c r="O24" s="4"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -4199,7 +5041,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -4216,7 +5058,7 @@
       <c r="O26" s="4"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -4233,7 +5075,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -4250,7 +5092,7 @@
       <c r="O28" s="4"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -4267,7 +5109,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -4284,7 +5126,7 @@
       <c r="O30" s="4"/>
       <c r="P30" s="8"/>
     </row>
-    <row r="31" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -4301,7 +5143,7 @@
       <c r="O31" s="4"/>
       <c r="P31" s="8"/>
     </row>
-    <row r="32" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -4318,7 +5160,7 @@
       <c r="O32" s="4"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -4335,7 +5177,7 @@
       <c r="O33" s="4"/>
       <c r="P33" s="8"/>
     </row>
-    <row r="34" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -4352,7 +5194,7 @@
       <c r="O34" s="4"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -4369,7 +5211,7 @@
       <c r="O35" s="4"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -4386,7 +5228,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -4403,7 +5245,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -4420,7 +5262,7 @@
       <c r="O38" s="4"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -4437,7 +5279,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -4454,7 +5296,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -4471,7 +5313,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="8"/>
     </row>
-    <row r="42" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -4488,7 +5330,7 @@
       <c r="O42" s="4"/>
       <c r="P42" s="8"/>
     </row>
-    <row r="43" spans="2:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
